--- a/data/source/previous_releases/Earnings May 2016.xlsx
+++ b/data/source/previous_releases/Earnings May 2016.xlsx
@@ -3148,6 +3148,24 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
+    <xf numFmtId="164" fontId="80" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3155,30 +3173,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="80" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="480">
@@ -4354,12 +4354,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -5292,10 +5292,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -7149,2976 +7149,2976 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="43" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="41">
         <v>733.25</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="41">
         <v>760.06</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="41">
         <v>754.02</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="41">
         <v>726.53</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="41">
         <v>732.01</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="41">
         <v>735.92</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="41">
         <v>738.05</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="41">
         <v>753.9</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="41">
         <v>743.75</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="41">
         <v>755.38</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="41">
         <v>765.03</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="41">
         <v>760.06</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="41">
         <v>768.22</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="41">
         <v>768.96</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="41">
         <v>760.77</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="41">
         <v>777.15</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="41">
         <v>781.9</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="41">
         <v>918.31</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="41">
         <v>945.7</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="41">
         <v>959.35</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <v>955.4</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="41">
         <v>966.74</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="41">
         <v>976.45</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="41">
         <v>996.31</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="41">
         <v>1013.33</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="41">
         <v>968.13</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="41">
         <v>973.33</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="41">
         <v>976.28</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="41">
         <v>954.57</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="41">
         <v>934.99</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="41">
         <v>948.02</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="41">
         <v>955.21</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="41">
         <v>962.76</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="41">
         <v>975.8</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="41">
         <v>788.1</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="41">
         <v>807.65</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="41">
         <v>802.7</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="41">
         <v>799.84</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="41">
         <v>794.42</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="41">
         <v>798.66</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="41">
         <v>796.49</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="41">
         <v>819.94</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="41">
         <v>799.8</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="41">
         <v>801.86</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="41">
         <v>812.41</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="41">
         <v>797.48</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="41">
         <v>803.06</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="41">
         <v>810.54</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="41">
         <v>813.6</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="41">
         <v>820.46</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="41">
         <v>828.8</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="41">
         <v>670.89</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="41">
         <v>674.57</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="41">
         <v>676.55</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="41">
         <v>670.55</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="41">
         <v>666.79</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="41">
         <v>661.65</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="41">
         <v>667.36</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="41">
         <v>684.39</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="41">
         <v>669.19</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="41">
         <v>675.86</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="41">
         <v>686.26</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="41">
         <v>675.37</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="41">
         <v>675.35</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="41">
         <v>673.93</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="41">
         <v>664.99</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="41">
         <v>675.66</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="41">
         <v>687.37</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="41">
         <v>955.48</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="41">
         <v>980.69</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <v>980.7</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="41">
         <v>961.14</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="41">
         <v>960.06</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="41">
         <v>962.21</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="41">
         <v>963.59</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="41">
         <v>994.39</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="41">
         <v>960.45</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="41">
         <v>970.14</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="41">
         <v>994.73</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="41">
         <v>969.8</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="41">
         <v>970.25</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="41">
         <v>974.7</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="41">
         <v>970.15</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="41">
         <v>979.61</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="41">
         <v>1010.01</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="41">
         <v>895.1</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="41">
         <v>919.86</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="41">
         <v>922.26</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="41">
         <v>902.16</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="41">
         <v>903.83</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="41">
         <v>897.94</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="41">
         <v>912.52</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="41">
         <v>939.6</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="41">
         <v>908.86</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="41">
         <v>917.67</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="41">
         <v>927.18</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="41">
         <v>897.4</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="41">
         <v>915.83</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="41">
         <v>912.34</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="41">
         <v>910.09</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="41">
         <v>910.68</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="41">
         <v>927.84</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="41">
         <v>956.09</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="41">
         <v>973.28</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="41">
         <v>975.74</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="41">
         <v>962.46</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="41">
         <v>955.04</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="41">
         <v>957.38</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="41">
         <v>961.92</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="41">
         <v>997.9</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="41">
         <v>984.97</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="41">
         <v>993.81</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="41">
         <v>1010.28</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="41">
         <v>1001.28</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="41">
         <v>1005.3</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="41">
         <v>1003.59</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="41">
         <v>999.32</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="41">
         <v>1019.37</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="41">
         <v>1042.44</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="41">
         <v>730.52</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="41">
         <v>750.25</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="41">
         <v>751.25</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="41">
         <v>741.59</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="41">
         <v>738.81</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="41">
         <v>728.97</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="41">
         <v>738.81</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="41">
         <v>759.45</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="41">
         <v>759.28</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="41">
         <v>761.54</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="41">
         <v>765.61</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="41">
         <v>782.21</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="41">
         <v>799.53</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="41">
         <v>803.2</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="41">
         <v>806.86</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="41">
         <v>810.41</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="41">
         <v>809.42</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="41">
         <v>1398.23</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="41">
         <v>1490.03</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <v>1474.93</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>1382.37</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="41">
         <v>1367.2</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="41">
         <v>1359.65</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="41">
         <v>1317.75</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="41">
         <v>1363.12</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="41">
         <v>1308.3</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="41">
         <v>1273.6199999999999</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="41">
         <v>1345.68</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="41">
         <v>1298.8800000000001</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="41">
         <v>1287.97</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="41">
         <v>1305.3900000000001</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="41">
         <v>1306.6099999999999</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="41">
         <v>1333.58</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="41">
         <v>1412.43</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="41">
         <v>761.11</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="41">
         <v>781.79</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="41">
         <v>779.02</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="41">
         <v>769.01</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="41">
         <v>769.84</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="41">
         <v>764.18</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="41">
         <v>771.21</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="41">
         <v>786.6</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="41">
         <v>772.92</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="41">
         <v>777.82</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="41">
         <v>792.81</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="41">
         <v>784.78</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="41">
         <v>777.02</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="41">
         <v>782.5</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="41">
         <v>788.39</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="41">
         <v>788.65</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="41">
         <v>802.96</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="41">
         <v>830.33</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="41">
         <v>849.32</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <v>844.38</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="41">
         <v>823.02</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="41">
         <v>824.85</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="41">
         <v>820.99</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="41">
         <v>826.61</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="41">
         <v>848.7</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="41">
         <v>825.11</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="41">
         <v>839.03</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="41">
         <v>852.23</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="41">
         <v>839.72</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="41">
         <v>839.36</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="41">
         <v>842.17</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="41">
         <v>840.43</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="41">
         <v>842.51</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="41">
         <v>877.91</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="41">
         <v>813.73</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="41">
         <v>839.2</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="41">
         <v>839.54</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="41">
         <v>811.47</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="41">
         <v>812.13</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="41">
         <v>804.41</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="41">
         <v>814.19</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="41">
         <v>833.68</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="41">
         <v>797.72</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="41">
         <v>806.2</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="41">
         <v>833.15</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="41">
         <v>828.3</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="41">
         <v>824.92</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="41">
         <v>827.64</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="41">
         <v>822.17</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="41">
         <v>829.27</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="41">
         <v>851.76</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="41">
         <v>717.53</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="41">
         <v>744.77</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="41">
         <v>736.35</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="41">
         <v>733.6</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="41">
         <v>735.13</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="41">
         <v>735.5</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="41">
         <v>740.04</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="41">
         <v>765.9</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="41">
         <v>732.39</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="41">
         <v>738.7</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="41">
         <v>748.39</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="41">
         <v>732.15</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="41">
         <v>731.92</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="41">
         <v>729.65</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="41">
         <v>727.06</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="41">
         <v>742.62</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="41">
         <v>758.59</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="41">
         <v>872.59</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="41">
         <v>901.14</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="41">
         <v>893.71</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="41">
         <v>878.76</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="41">
         <v>879.28</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="41">
         <v>878.77</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="41">
         <v>880.99</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="41">
         <v>905.5</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="41">
         <v>887.49</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="41">
         <v>902.31</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="41">
         <v>920.94</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="41">
         <v>902.09</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="41">
         <v>900.38</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="41">
         <v>894.01</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="41">
         <v>896.99</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="41">
         <v>899.03</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="41">
         <v>917.18</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="41">
         <v>798.1</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="41">
         <v>800.1</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="41">
         <v>797.3</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="41">
         <v>790.31</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="41">
         <v>792.75</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="41">
         <v>790.49</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="41">
         <v>791.7</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="41">
         <v>810.84</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="41">
         <v>791.09</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="41">
         <v>799.21</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="41">
         <v>807.45</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="41">
         <v>807.3</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="41">
         <v>804.54</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="41">
         <v>796.79</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="41">
         <v>794.05</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="41">
         <v>808.68</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="41">
         <v>813.28</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="41">
         <v>755.82</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="41">
         <v>775.34</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="41">
         <v>775.55</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="41">
         <v>780.06</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="41">
         <v>780.92</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="41">
         <v>776.04</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="41">
         <v>780.71</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="41">
         <v>812.25</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="41">
         <v>792.81</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="41">
         <v>796.02</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="41">
         <v>781.1</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="41">
         <v>777.92</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="41">
         <v>768.95</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="41">
         <v>770.64</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="41">
         <v>784.04</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="41">
         <v>806.61</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="41">
         <v>812.33</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="41">
         <v>770.18</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="41">
         <v>781.77</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="41">
         <v>777.81</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="41">
         <v>756.84</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="41">
         <v>761.11</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="41">
         <v>767.08</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="41">
         <v>769.18</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="41">
         <v>789.6</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="41">
         <v>768.4</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="41">
         <v>779.08</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="41">
         <v>790.17</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="41">
         <v>783.82</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="41">
         <v>772.13</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21" s="41">
         <v>766.82</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="41">
         <v>760.45</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="41">
         <v>767.53</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="41">
         <v>766.42</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="41">
         <v>740.23</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="41">
         <v>731.34</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="41">
         <v>740.95</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="41">
         <v>739.55</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="41">
         <v>742.02</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="41">
         <v>742.34</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="41">
         <v>749.06</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="41">
         <v>754.7</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="41">
         <v>744.12</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="41">
         <v>741.95</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="41">
         <v>747.56</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="41">
         <v>751.08</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="41">
         <v>739.5</v>
       </c>
-      <c r="O22" s="46">
+      <c r="O22" s="41">
         <v>732.89</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="41">
         <v>741.31</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="41">
         <v>744.1</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="41">
         <v>739.55</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="41">
         <v>794.47</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="41">
         <v>806.26</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="41">
         <v>801.29</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="41">
         <v>794.68</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="41">
         <v>786.88</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="41">
         <v>788.01</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="41">
         <v>787.29</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="41">
         <v>807.68</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="41">
         <v>784.11</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="41">
         <v>801.29</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="41">
         <v>812.52</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="41">
         <v>802.28</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="41">
         <v>795.66</v>
       </c>
-      <c r="O23" s="46">
+      <c r="O23" s="41">
         <v>786.59</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23" s="41">
         <v>776.08</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="41">
         <v>789.6</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="41">
         <v>806.34</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="41">
         <v>743.43</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="41">
         <v>748</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="41">
         <v>753.95</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="41">
         <v>743.77</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="41">
         <v>743.28</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="41">
         <v>736.08</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="41">
         <v>741.13</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="41">
         <v>747.44</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="41">
         <v>752.79</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="41">
         <v>754.94</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="41">
         <v>761.46</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="41">
         <v>758.38</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="41">
         <v>749.06</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="41">
         <v>751.17</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="41">
         <v>751.04</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="41">
         <v>753.06</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24" s="41">
         <v>756.68</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="41">
         <v>920.41</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="41">
         <v>939.37</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="41">
         <v>946.96</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="41">
         <v>930.25</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="41">
         <v>928.84</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="41">
         <v>919.58</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="41">
         <v>920.2</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="41">
         <v>946.62</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="41">
         <v>938.4</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="41">
         <v>941.47</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="41">
         <v>958.07</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="41">
         <v>939.13</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="41">
         <v>919.97</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="41">
         <v>916.64</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="41">
         <v>924.45</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="41">
         <v>929.21</v>
       </c>
-      <c r="R25" s="46">
+      <c r="R25" s="41">
         <v>942.91</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="41">
         <v>1008.56</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="41">
         <v>1009.8</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="41">
         <v>1015.03</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="41">
         <v>1006.99</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="41">
         <v>1011.37</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="41">
         <v>1002.99</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="41">
         <v>1004.3</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="41">
         <v>1021.77</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="41">
         <v>1018.4</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="41">
         <v>1031.47</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="41">
         <v>1055.57</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26" s="41">
         <v>1044.03</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="41">
         <v>1044.95</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="41">
         <v>1038.02</v>
       </c>
-      <c r="P26" s="46">
+      <c r="P26" s="41">
         <v>1035.3</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="41">
         <v>1035.6300000000001</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26" s="41">
         <v>1046.6400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="41">
         <v>814.31</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="41">
         <v>822.17</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="41">
         <v>826.28</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="41">
         <v>818.4</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="41">
         <v>820.02</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="41">
         <v>816.91</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="41">
         <v>820.46</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="41">
         <v>847.37</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="41">
         <v>827.27</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="41">
         <v>837.26</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="41">
         <v>844.22</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="41">
         <v>835.21</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="41">
         <v>823.71</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="41">
         <v>820.66</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="41">
         <v>823.09</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="41">
         <v>823.88</v>
       </c>
-      <c r="R27" s="46">
+      <c r="R27" s="41">
         <v>827.66</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="41">
         <v>873.68</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="41">
         <v>884.11</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="41">
         <v>892.25</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="41">
         <v>872.93</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="41">
         <v>871.7</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="41">
         <v>876.71</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="41">
         <v>882.36</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="41">
         <v>904.1</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="41">
         <v>881.4</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="41">
         <v>897.26</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="41">
         <v>900.14</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="41">
         <v>888.33</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="41">
         <v>894.79</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="41">
         <v>886.44</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="41">
         <v>906.18</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="41">
         <v>906.53</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="41">
         <v>928.5</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="41">
         <v>675.85</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="41">
         <v>697.53</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="41">
         <v>702.47</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="41">
         <v>680.78</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="41">
         <v>677.12</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="41">
         <v>678.39</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="41">
         <v>681.51</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="41">
         <v>694.63</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="41">
         <v>676.13</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="41">
         <v>683.59</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="41">
         <v>698.49</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="41">
         <v>689.49</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="41">
         <v>687.85</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29" s="41">
         <v>681.62</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29" s="41">
         <v>672.71</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="41">
         <v>684.63</v>
       </c>
-      <c r="R29" s="46">
+      <c r="R29" s="41">
         <v>706.73</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="41">
         <v>743.76</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="41">
         <v>759.58</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="41">
         <v>757.87</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="41">
         <v>747.66</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="41">
         <v>743.37</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="41">
         <v>743.6</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="41">
         <v>743.6</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="41">
         <v>759.55</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="41">
         <v>742.22</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="41">
         <v>744.95</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="41">
         <v>755.48</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="41">
         <v>745.78</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="41">
         <v>743.15</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="41">
         <v>738.26</v>
       </c>
-      <c r="P30" s="46">
+      <c r="P30" s="41">
         <v>740.26</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="41">
         <v>746.79</v>
       </c>
-      <c r="R30" s="46">
+      <c r="R30" s="41">
         <v>753.87</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="41">
         <v>700.1</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="41">
         <v>722.67</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="41">
         <v>706.23</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="41">
         <v>696.96</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="41">
         <v>711.75</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="41">
         <v>713.19</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="41">
         <v>716.56</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="41">
         <v>746.72</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="41">
         <v>723.65</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="41">
         <v>723.13</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="41">
         <v>747.78</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="41">
         <v>722.87</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="41">
         <v>711.98</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="41">
         <v>722.55</v>
       </c>
-      <c r="P31" s="46">
+      <c r="P31" s="41">
         <v>709.95</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="41">
         <v>724.46</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31" s="41">
         <v>743.76</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="41">
         <v>738.53</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="41">
         <v>755.63</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="41">
         <v>755.14</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="41">
         <v>738.53</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="41">
         <v>742.75</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="41">
         <v>749.34</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="41">
         <v>752.2</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="41">
         <v>785.25</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="41">
         <v>766.14</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="41">
         <v>766.61</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="41">
         <v>774.63</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="41">
         <v>760.84</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="41">
         <v>760.18</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="41">
         <v>761.9</v>
       </c>
-      <c r="P32" s="46">
+      <c r="P32" s="41">
         <v>762.86</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="41">
         <v>777.67</v>
       </c>
-      <c r="R32" s="46">
+      <c r="R32" s="41">
         <v>788.73</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="41">
         <v>717.45</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="41">
         <v>732.98</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="41">
         <v>737.52</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="41">
         <v>729.79</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="41">
         <v>729.63</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="41">
         <v>730.13</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="41">
         <v>737.02</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="41">
         <v>754.29</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="41">
         <v>747.32</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="41">
         <v>741.69</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="41">
         <v>753.94</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="41">
         <v>737.14</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="41">
         <v>739.36</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="41">
         <v>741.26</v>
       </c>
-      <c r="P33" s="46">
+      <c r="P33" s="41">
         <v>737.04</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="41">
         <v>746.59</v>
       </c>
-      <c r="R33" s="46">
+      <c r="R33" s="41">
         <v>757.86</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="41">
         <v>809.34</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="41">
         <v>819.54</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="41">
         <v>831.14</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="41">
         <v>842.69</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="41">
         <v>839.8</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="41">
         <v>825.11</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="41">
         <v>830.89</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="41">
         <v>835.79</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="41">
         <v>837.78</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="41">
         <v>852.1</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="41">
         <v>862.76</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="41">
         <v>851.26</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="41">
         <v>861.14</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="41">
         <v>857.89</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="41">
         <v>848.68</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="41">
         <v>860.5</v>
       </c>
-      <c r="R34" s="46">
+      <c r="R34" s="41">
         <v>871.42</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="41">
         <v>918.98</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="41">
         <v>942.36</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="41">
         <v>947.98</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="41">
         <v>928.44</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="41">
         <v>930.46</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="41">
         <v>929.78</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="41">
         <v>930.56</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="41">
         <v>948.02</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="41">
         <v>938.96</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="41">
         <v>943.1</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="41">
         <v>956.08</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="41">
         <v>942.82</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="41">
         <v>934.75</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="41">
         <v>940.46</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="41">
         <v>937.33</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="41">
         <v>945.96</v>
       </c>
-      <c r="R35" s="46">
+      <c r="R35" s="41">
         <v>962.2</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="41">
         <v>699.02</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="41">
         <v>708.3</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="41">
         <v>708.98</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="41">
         <v>694.27</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="41">
         <v>693.58</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="41">
         <v>689.16</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="41">
         <v>693.89</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="41">
         <v>709.17</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="41">
         <v>700.42</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="41">
         <v>699.73</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="41">
         <v>705.55</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="41">
         <v>693.6</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="41">
         <v>687.71</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="41">
         <v>691.78</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="41">
         <v>681.98</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="41">
         <v>685.41</v>
       </c>
-      <c r="R36" s="46">
+      <c r="R36" s="41">
         <v>686.82</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="41">
         <v>961.45</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="41">
         <v>978.31</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="41">
         <v>979.52</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="41">
         <v>966.48</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="41">
         <v>962.14</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="41">
         <v>958.77</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="41">
         <v>961.61</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="41">
         <v>983.25</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="41">
         <v>964.83</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="41">
         <v>969.21</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="41">
         <v>993.82</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="41">
         <v>978.31</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="41">
         <v>977.28</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="41">
         <v>979.4</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="41">
         <v>971.43</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="41">
         <v>969.7</v>
       </c>
-      <c r="R37" s="46">
+      <c r="R37" s="41">
         <v>983.47</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="41">
         <v>753.77</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="41">
         <v>771.08</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="41">
         <v>768.85</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="41">
         <v>758.18</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="41">
         <v>762.45</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="41">
         <v>760.04</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="41">
         <v>763.49</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="41">
         <v>788.9</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="41">
         <v>766.61</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="41">
         <v>778.15</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="41">
         <v>790.26</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="41">
         <v>779.16</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="41">
         <v>776.72</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="41">
         <v>783.15</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="41">
         <v>790.78</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="41">
         <v>797.48</v>
       </c>
-      <c r="R38" s="46">
+      <c r="R38" s="41">
         <v>811.44</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="41">
         <v>864.92</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="41">
         <v>873.25</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="41">
         <v>877.04</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="41">
         <v>878.15</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="41">
         <v>875.13</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="41">
         <v>877.21</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="41">
         <v>894.2</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="41">
         <v>919.08</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="41">
         <v>895.49</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="41">
         <v>907.3</v>
       </c>
-      <c r="L39" s="46">
+      <c r="L39" s="41">
         <v>901.56</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="41">
         <v>881.03</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="41">
         <v>895.13</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="41">
         <v>875.69</v>
       </c>
-      <c r="P39" s="46">
+      <c r="P39" s="41">
         <v>864.74</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="41">
         <v>885.1</v>
       </c>
-      <c r="R39" s="46">
+      <c r="R39" s="41">
         <v>907.9</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="41">
         <v>760.84</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="41">
         <v>771.68</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="41">
         <v>777.58</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="41">
         <v>767.38</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="41">
         <v>766.57</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="41">
         <v>767.29</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="41">
         <v>767.59</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="41">
         <v>788.88</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="41">
         <v>780.89</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="41">
         <v>782.94</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="41">
         <v>795.11</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="41">
         <v>788.79</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="41">
         <v>786.08</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="41">
         <v>785.4</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="41">
         <v>787.03</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="41">
         <v>799.6</v>
       </c>
-      <c r="R40" s="46">
+      <c r="R40" s="41">
         <v>807.71</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="41">
         <v>755.32</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="41">
         <v>767.55</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="41">
         <v>768.34</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="41">
         <v>748.89</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="41">
         <v>744.88</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="41">
         <v>752.03</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="41">
         <v>744.76</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="41">
         <v>767.71</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="41">
         <v>748.43</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="41">
         <v>756.46</v>
       </c>
-      <c r="L41" s="46">
+      <c r="L41" s="41">
         <v>771.5</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="41">
         <v>758.1</v>
       </c>
-      <c r="N41" s="46">
+      <c r="N41" s="41">
         <v>756.63</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="41">
         <v>760.03</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="41">
         <v>754.86</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="41">
         <v>759.93</v>
       </c>
-      <c r="R41" s="46">
+      <c r="R41" s="41">
         <v>773.96</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="41">
         <v>778.22</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="41">
         <v>807.56</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="41">
         <v>804.27</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="41">
         <v>783.55</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="41">
         <v>787.23</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="41">
         <v>791.52</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="41">
         <v>792.88</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="41">
         <v>820.05</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="41">
         <v>796.67</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="41">
         <v>801.39</v>
       </c>
-      <c r="L42" s="46">
+      <c r="L42" s="41">
         <v>828.35</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="41">
         <v>808.02</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="41">
         <v>811.29</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="41">
         <v>820.6</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="41">
         <v>811.71</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="41">
         <v>834.62</v>
       </c>
-      <c r="R42" s="46">
+      <c r="R42" s="41">
         <v>857.82</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="41">
         <v>799.6</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="41">
         <v>811.83</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="41">
         <v>818.64</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="41">
         <v>814.58</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="41">
         <v>817.36</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="41">
         <v>818.38</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="41">
         <v>819.74</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="41">
         <v>831.78</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="41">
         <v>823.03</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="41">
         <v>828.97</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="41">
         <v>841.72</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="41">
         <v>833.45</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="41">
         <v>831.04</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="41">
         <v>825.55</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="41">
         <v>822.19</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="41">
         <v>825.31</v>
       </c>
-      <c r="R43" s="46">
+      <c r="R43" s="41">
         <v>832.32</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="41">
         <v>827.87</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="41">
         <v>831.68</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="41">
         <v>838.29</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="41">
         <v>827.44</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="41">
         <v>828.16</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="41">
         <v>810.77</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="41">
         <v>815.14</v>
       </c>
-      <c r="I44" s="46">
+      <c r="I44" s="41">
         <v>814.39</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="41">
         <v>821.84</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="41">
         <v>827.11</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="41">
         <v>839.42</v>
       </c>
-      <c r="M44" s="46">
+      <c r="M44" s="41">
         <v>825.46</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="41">
         <v>844.34</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="41">
         <v>843.7</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="41">
         <v>833.95</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="41">
         <v>852.16</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="41">
         <v>860.66</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="41">
         <v>744.31</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="41">
         <v>739.06</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="41">
         <v>754.73</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="41">
         <v>734.21</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="41">
         <v>729.74</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="41">
         <v>730.45</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="41">
         <v>737.72</v>
       </c>
-      <c r="I45" s="46">
+      <c r="I45" s="41">
         <v>749.41</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="41">
         <v>737.45</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="41">
         <v>744.94</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="41">
         <v>758.64</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="41">
         <v>749.78</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="41">
         <v>752.33</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="41">
         <v>749.58</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="41">
         <v>767.08</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="41">
         <v>758.78</v>
       </c>
-      <c r="R45" s="46">
+      <c r="R45" s="41">
         <v>762.91</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="41">
         <v>701.49</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="41">
         <v>715.81</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="41">
         <v>709.92</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="41">
         <v>704.67</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="41">
         <v>707.36</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="41">
         <v>708.62</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="41">
         <v>709.32</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="41">
         <v>721.41</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="41">
         <v>715.36</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="41">
         <v>727.35</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="41">
         <v>730.31</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="41">
         <v>716.57</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="41">
         <v>717.36</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="41">
         <v>707.41</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="41">
         <v>711.98</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="41">
         <v>725.8</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="41">
         <v>737.27</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="41">
         <v>718.98</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="41">
         <v>727.66</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="41">
         <v>732.16</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="41">
         <v>724.15</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="41">
         <v>724.11</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="41">
         <v>729.65</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47" s="41">
         <v>734.98</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="41">
         <v>748.94</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="41">
         <v>734.65</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="41">
         <v>742.02</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="41">
         <v>753.67</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="41">
         <v>752.58</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="41">
         <v>755.74</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="41">
         <v>749.03</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="41">
         <v>754.01</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="41">
         <v>756.85</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="41">
         <v>777.22</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="41">
         <v>883.01</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="41">
         <v>907.49</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="41">
         <v>896.44</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="41">
         <v>878.04</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="41">
         <v>874.52</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="41">
         <v>877.49</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="41">
         <v>876.4</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="41">
         <v>899.99</v>
       </c>
-      <c r="J48" s="46">
+      <c r="J48" s="41">
         <v>865.18</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="41">
         <v>876.79</v>
       </c>
-      <c r="L48" s="46">
+      <c r="L48" s="41">
         <v>898.35</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="41">
         <v>876.68</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="41">
         <v>877.15</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="41">
         <v>871.79</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="41">
         <v>862.75</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="41">
         <v>867.27</v>
       </c>
-      <c r="R48" s="46">
+      <c r="R48" s="41">
         <v>891.61</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="41">
         <v>825.6</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="41">
         <v>850.02</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="41">
         <v>846.96</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="41">
         <v>825.59</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="41">
         <v>829.33</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="41">
         <v>830.97</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="41">
         <v>836.59</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="41">
         <v>858.45</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="41">
         <v>837.98</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="41">
         <v>841.46</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="41">
         <v>870.06</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="41">
         <v>829.72</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="41">
         <v>831.3</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="41">
         <v>829.01</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="41">
         <v>826.63</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="41">
         <v>840.39</v>
       </c>
-      <c r="R49" s="46">
+      <c r="R49" s="41">
         <v>862.7</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="41">
         <v>775.45</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="41">
         <v>781.11</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="41">
         <v>788.04</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="41">
         <v>801.45</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="41">
         <v>808.36</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="41">
         <v>805.06</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="41">
         <v>808.83</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="41">
         <v>810.86</v>
       </c>
-      <c r="J50" s="46">
+      <c r="J50" s="41">
         <v>808.02</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="41">
         <v>810.43</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="41">
         <v>817.85</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="41">
         <v>814.11</v>
       </c>
-      <c r="N50" s="46">
+      <c r="N50" s="41">
         <v>806.85</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="41">
         <v>797.17</v>
       </c>
-      <c r="P50" s="46">
+      <c r="P50" s="41">
         <v>794.21</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="41">
         <v>809.52</v>
       </c>
-      <c r="R50" s="46">
+      <c r="R50" s="41">
         <v>817.23</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="41">
         <v>889.76</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="41">
         <v>923.13</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="41">
         <v>925.92</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="41">
         <v>919.21</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="41">
         <v>915.68</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="41">
         <v>905.23</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="41">
         <v>905.93</v>
       </c>
-      <c r="I51" s="46">
+      <c r="I51" s="41">
         <v>937.7</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51" s="41">
         <v>919.1</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="41">
         <v>919.96</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51" s="41">
         <v>939.87</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51" s="41">
         <v>919.45</v>
       </c>
-      <c r="N51" s="46">
+      <c r="N51" s="41">
         <v>924.76</v>
       </c>
-      <c r="O51" s="46">
+      <c r="O51" s="41">
         <v>924.06</v>
       </c>
-      <c r="P51" s="46">
+      <c r="P51" s="41">
         <v>929.51</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="41">
         <v>938.46</v>
       </c>
-      <c r="R51" s="46">
+      <c r="R51" s="41">
         <v>954.45</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="41">
         <v>990.86</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="41">
         <v>1024.69</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="41">
         <v>1024.3399999999999</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="41">
         <v>995.98</v>
       </c>
-      <c r="F52" s="46">
+      <c r="F52" s="41">
         <v>998.92</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="41">
         <v>997.27</v>
       </c>
-      <c r="H52" s="46">
+      <c r="H52" s="41">
         <v>998.82</v>
       </c>
-      <c r="I52" s="46">
+      <c r="I52" s="41">
         <v>1039.23</v>
       </c>
-      <c r="J52" s="46">
+      <c r="J52" s="41">
         <v>1021.8</v>
       </c>
-      <c r="K52" s="46">
+      <c r="K52" s="41">
         <v>1029</v>
       </c>
-      <c r="L52" s="46">
+      <c r="L52" s="41">
         <v>1066.3399999999999</v>
       </c>
-      <c r="M52" s="46">
+      <c r="M52" s="41">
         <v>1026.1500000000001</v>
       </c>
-      <c r="N52" s="46">
+      <c r="N52" s="41">
         <v>1032.58</v>
       </c>
-      <c r="O52" s="46">
+      <c r="O52" s="41">
         <v>1036.5999999999999</v>
       </c>
-      <c r="P52" s="46">
+      <c r="P52" s="41">
         <v>1032.8900000000001</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="41">
         <v>1040.26</v>
       </c>
-      <c r="R52" s="46">
+      <c r="R52" s="41">
         <v>1072.06</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="41">
         <v>714.81</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="41">
         <v>711.7</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="41">
         <v>715.19</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="41">
         <v>712.41</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F53" s="41">
         <v>718.24</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="41">
         <v>714.44</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H53" s="41">
         <v>720.34</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="41">
         <v>729.03</v>
       </c>
-      <c r="J53" s="46">
+      <c r="J53" s="41">
         <v>720.37</v>
       </c>
-      <c r="K53" s="46">
+      <c r="K53" s="41">
         <v>725.22</v>
       </c>
-      <c r="L53" s="46">
+      <c r="L53" s="41">
         <v>731.5</v>
       </c>
-      <c r="M53" s="46">
+      <c r="M53" s="41">
         <v>718.99</v>
       </c>
-      <c r="N53" s="46">
+      <c r="N53" s="41">
         <v>720.94</v>
       </c>
-      <c r="O53" s="46">
+      <c r="O53" s="41">
         <v>724.07</v>
       </c>
-      <c r="P53" s="46">
+      <c r="P53" s="41">
         <v>727.67</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="41">
         <v>731.84</v>
       </c>
-      <c r="R53" s="46">
+      <c r="R53" s="41">
         <v>725.87</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="41">
         <v>787.24</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="41">
         <v>795.32</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="41">
         <v>795.65</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="41">
         <v>785.57</v>
       </c>
-      <c r="F54" s="46">
+      <c r="F54" s="41">
         <v>786.24</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="41">
         <v>778.13</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="41">
         <v>781.12</v>
       </c>
-      <c r="I54" s="46">
+      <c r="I54" s="41">
         <v>792.83</v>
       </c>
-      <c r="J54" s="46">
+      <c r="J54" s="41">
         <v>785.57</v>
       </c>
-      <c r="K54" s="46">
+      <c r="K54" s="41">
         <v>795.66</v>
       </c>
-      <c r="L54" s="46">
+      <c r="L54" s="41">
         <v>805.46</v>
       </c>
-      <c r="M54" s="46">
+      <c r="M54" s="41">
         <v>800.35</v>
       </c>
-      <c r="N54" s="46">
+      <c r="N54" s="41">
         <v>793.74</v>
       </c>
-      <c r="O54" s="46">
+      <c r="O54" s="41">
         <v>794.14</v>
       </c>
-      <c r="P54" s="46">
+      <c r="P54" s="41">
         <v>794.87</v>
       </c>
-      <c r="Q54" s="46">
+      <c r="Q54" s="41">
         <v>801.6</v>
       </c>
-      <c r="R54" s="46">
+      <c r="R54" s="41">
         <v>809.42</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="41">
         <v>811.19</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="41">
         <v>835.75</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D55" s="41">
         <v>826.24</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="41">
         <v>814.45</v>
       </c>
-      <c r="F55" s="46">
+      <c r="F55" s="41">
         <v>815.08</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="41">
         <v>810.87</v>
       </c>
-      <c r="H55" s="46">
+      <c r="H55" s="41">
         <v>809.9</v>
       </c>
-      <c r="I55" s="46">
+      <c r="I55" s="41">
         <v>837.93</v>
       </c>
-      <c r="J55" s="46">
+      <c r="J55" s="41">
         <v>804.8</v>
       </c>
-      <c r="K55" s="46">
+      <c r="K55" s="41">
         <v>806.96</v>
       </c>
-      <c r="L55" s="46">
+      <c r="L55" s="41">
         <v>816.76</v>
       </c>
-      <c r="M55" s="46">
+      <c r="M55" s="41">
         <v>778.22</v>
       </c>
-      <c r="N55" s="46">
+      <c r="N55" s="41">
         <v>773.85</v>
       </c>
-      <c r="O55" s="46">
+      <c r="O55" s="41">
         <v>776.22</v>
       </c>
-      <c r="P55" s="46">
+      <c r="P55" s="41">
         <v>778.55</v>
       </c>
-      <c r="Q55" s="46">
+      <c r="Q55" s="41">
         <v>755.96</v>
       </c>
-      <c r="R55" s="46">
+      <c r="R55" s="41">
         <v>774.56</v>
       </c>
     </row>
@@ -10142,7 +10142,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10169,12 +10169,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
